--- a/biology/Zoologie/Compsophis_fatsibe/Compsophis_fatsibe.xlsx
+++ b/biology/Zoologie/Compsophis_fatsibe/Compsophis_fatsibe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compsophis fatsibe est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Compsophis fatsibe est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Compsophis fatsibe[2], un mâle adulte, mesure 522 mm dont 127 mm pour la queue. Son dos est gris violacé avec un quadrillage irrégulier sombre essentiellement dans la partie postérieure du corps. Sa face ventrale est jaunâtre avec de petites marques brunes devant plus nombreuses vers l'anus. Le dessous de sa queue est blanchâtre avec une ligne médiane brun foncé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Compsophis fatsibe, un mâle adulte, mesure 522 mm dont 127 mm pour la queue. Son dos est gris violacé avec un quadrillage irrégulier sombre essentiellement dans la partie postérieure du corps. Sa face ventrale est jaunâtre avec de petites marques brunes devant plus nombreuses vers l'anus. Le dessous de sa queue est blanchâtre avec une ligne médiane brun foncé.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du malgache fatsy, « épine », et be, « gros, de grande taille », fait référence aux grandes épines crochues à la base des hémipénis.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mercurio &amp; Andreone, 2005 : Description of a new Geodipsas snake from northern Madagascar (Squamata: Colubridae). Zootaxa, n. 1093, p. 61-68 (texte intégral).</t>
         </is>
